--- a/garaKR_errors.xlsx
+++ b/garaKR_errors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\codes\dnnCossEuler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9833D4DF-466A-4867-802C-1B42D11E6649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AAE284-6737-4303-85ED-2428317DD753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3570" windowWidth="28800" windowHeight="15630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8415" yWindow="5220" windowWidth="28800" windowHeight="15630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="std_ess" sheetId="1" r:id="rId1"/>
@@ -287,17 +287,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -7786,10 +7785,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8103170A-34BA-466B-8392-00390023AFC9}">
-  <dimension ref="A1:AE56"/>
+  <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="D24" workbookViewId="0">
+      <selection activeCell="AF54" sqref="AF54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7898,10 +7897,10 @@
       <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="5"/>
+      <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -7934,25 +7933,25 @@
       <c r="J4">
         <v>-108.0360612642402</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4">
         <v>0.9997006557585516</v>
       </c>
     </row>
@@ -7987,25 +7986,25 @@
       <c r="J5">
         <v>-86.004891660953945</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>29</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>-9.7402856066157959</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>-0.33587191746951023</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>1.7891636117623535</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5">
         <v>0.99940140112407805</v>
       </c>
     </row>
@@ -8040,25 +8039,25 @@
       <c r="J6">
         <v>-64.51847500031306</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <v>29</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6">
         <v>9.5429845446735531</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6">
         <v>0.32906843257495011</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6">
         <v>2.5430823849528656</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="W6" t="s">
         <v>39</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6">
         <v>0.9993792307953403</v>
       </c>
     </row>
@@ -8093,25 +8092,25 @@
       <c r="J7">
         <v>-41.846220981564187</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>29</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>13.135088736968562</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="2">
         <v>0.45293409437822629</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="2">
         <v>2.1647370859097093</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" t="s">
         <v>40</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7">
         <v>2.2991261924186035</v>
       </c>
     </row>
@@ -8146,10 +8145,10 @@
       <c r="J8">
         <v>-20.05757494369206</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="W8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="2">
         <v>29</v>
       </c>
     </row>
@@ -8254,41 +8253,41 @@
       <c r="J11">
         <v>42.446020298779381</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="T11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4" t="s">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Y11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="Z11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="4" t="s">
+      <c r="AA11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB11" s="4" t="s">
+      <c r="AB11" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8323,43 +8322,43 @@
       <c r="J12">
         <v>64.660673848219517</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12">
         <v>10.437131857643976</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12">
         <v>2</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12">
         <v>5.2185659288219881</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12">
         <v>2.4096873252347626</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12">
         <v>9.6029827274085933E-2</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12">
         <v>3.1051566079400095</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="W12" t="s">
         <v>41</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12">
         <v>1</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12">
         <v>238283.20854857974</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12">
         <v>238283.20854857974</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12">
         <v>45078.330273825202</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AB12">
         <v>4.7173001993128822E-45</v>
       </c>
     </row>
@@ -8394,35 +8393,30 @@
       <c r="J13">
         <v>88.335530658999218</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13">
         <v>181.91552631349796</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13">
         <v>84</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13">
         <v>2.1656610275416424</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="W13" s="2" t="s">
+      <c r="W13" t="s">
         <v>33</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13">
         <v>27</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13">
         <v>142.72149371396216</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="Z13">
         <v>5.2859812486652649</v>
       </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -8455,25 +8449,18 @@
       <c r="J14">
         <v>106.97589726983929</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="2">
         <v>28</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="2">
         <v>238425.93004229371</v>
       </c>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -8506,19 +8493,19 @@
       <c r="J15">
         <v>125.0218995913384</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>192.35265817114194</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>86</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -8551,33 +8538,33 @@
       <c r="J16">
         <v>143.3588193837393</v>
       </c>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4" t="s">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="Y16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z16" s="4" t="s">
+      <c r="Z16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AA16" s="4" t="s">
+      <c r="AA16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AB16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AC16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AD16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AE16" s="4" t="s">
+      <c r="AE16" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.5</v>
       </c>
@@ -8608,35 +8595,39 @@
       <c r="J17">
         <v>129.6041546048921</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="W17" t="s">
         <v>42</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17">
         <v>-1.25410723399016</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17">
         <v>0.4276446187870469</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z17">
         <v>-2.9325921077815891</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AA17">
         <v>6.7736231540422914E-3</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AB17">
         <v>-2.1315615130260013</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AC17">
         <v>-0.37665295495431861</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17">
         <v>-2.1315615130260013</v>
       </c>
-      <c r="AE17" s="2">
+      <c r="AE17">
         <v>-0.37665295495431861</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF17">
+        <f>X17-AD17</f>
+        <v>0.87745427903584128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6.25</v>
       </c>
@@ -8670,35 +8661,39 @@
       <c r="N18" t="s">
         <v>17</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="W18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="2">
         <v>17.30395822506172</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="2">
         <v>8.1500739131782726E-2</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="2">
         <v>212.31658030833393</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="2">
         <v>4.7173001993128822E-45</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="2">
         <v>17.13673252139543</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="2">
         <v>17.47118392872801</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="2">
         <v>17.13673252139543</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AE18" s="2">
         <v>17.47118392872801</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF18">
+        <f>X18-AD18</f>
+        <v>0.16722570366628986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -8730,7 +8725,7 @@
         <v>88.235011540945919</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.75</v>
       </c>
@@ -8768,7 +8763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.5</v>
       </c>
@@ -8799,23 +8794,23 @@
       <c r="J21">
         <v>42.367785878562927</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.25</v>
       </c>
@@ -8846,27 +8841,27 @@
       <c r="J22">
         <v>19.398869406412619</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22">
         <v>29</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22">
         <v>1.5433062614616428</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22">
         <v>5.321745729178079E-2</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22">
         <v>2.3930195208658307</v>
       </c>
-      <c r="W22" s="5" t="s">
+      <c r="W22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="X22" s="5"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -8897,29 +8892,29 @@
       <c r="J23">
         <v>-0.68286467718660493</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" t="s">
         <v>15</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23">
         <v>29</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23">
         <v>-9.3006731947686863</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23">
         <v>-0.32071286878512711</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23">
         <v>2.4851865389490047</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="W23" t="s">
         <v>37</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23">
         <v>0.99924244620549063</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-1.25</v>
       </c>
@@ -8950,29 +8945,29 @@
       <c r="J24">
         <v>-19.372248928146259</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="2">
         <v>29</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="2">
         <v>-7.6845046647509392</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="2">
         <v>-0.2649829194741703</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="2">
         <v>2.3905171671724688</v>
       </c>
-      <c r="W24" s="2" t="s">
+      <c r="W24" t="s">
         <v>38</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X24">
         <v>0.9984854662987328</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-2.5</v>
       </c>
@@ -9003,14 +8998,14 @@
       <c r="J25">
         <v>-42.196429637243973</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="W25" t="s">
         <v>39</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X25">
         <v>0.99842937245794516</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-3.75</v>
       </c>
@@ -9041,14 +9036,14 @@
       <c r="J26">
         <v>-65.629950903294116</v>
       </c>
-      <c r="W26" s="2" t="s">
+      <c r="W26" t="s">
         <v>40</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X26">
         <v>3.5023471850321197</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-5</v>
       </c>
@@ -9082,14 +9077,14 @@
       <c r="N27" t="s">
         <v>24</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="W27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-6.25</v>
       </c>
@@ -9120,29 +9115,29 @@
       <c r="J28">
         <v>-107.760580523285</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="N28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="S28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="T28" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-7.5</v>
       </c>
@@ -9173,32 +9168,32 @@
       <c r="J29">
         <v>-125.945760242329</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N29" t="s">
         <v>32</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29">
         <v>2.360418225913719</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29">
         <v>2</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29">
         <v>1.1802091129568595</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29">
         <v>0.48710443750629306</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29">
         <v>0.61612745006831227</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29">
         <v>3.1051566079400095</v>
       </c>
       <c r="W29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-8.75</v>
       </c>
@@ -9229,403 +9224,405 @@
       <c r="J30">
         <v>-141.12358122244669</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30">
         <v>203.52425035564454</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30">
         <v>84</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30">
         <v>2.4229077423291017</v>
       </c>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4" t="s">
+      <c r="W30" s="3"/>
+      <c r="X30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y30" s="4" t="s">
+      <c r="Y30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z30" s="4" t="s">
+      <c r="Z30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA30" s="4" t="s">
+      <c r="AA30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB30" s="4" t="s">
+      <c r="AB30" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="W31" s="2" t="s">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W31" t="s">
         <v>41</v>
       </c>
-      <c r="X31" s="2">
+      <c r="X31">
         <v>1</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="Y31">
         <v>218345.85940446571</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="Z31">
         <v>218345.85940446571</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AA31">
         <v>17800.269196723104</v>
       </c>
-      <c r="AB31" s="2">
+      <c r="AB31">
         <v>1.3071035004935051E-39</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N32" s="3" t="s">
+    <row r="32" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="2">
         <v>205.88466858155826</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="2">
         <v>86</v>
       </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="W32" s="2" t="s">
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="W32" t="s">
         <v>33</v>
       </c>
-      <c r="X32" s="2">
+      <c r="X32">
         <v>27</v>
       </c>
-      <c r="Y32" s="2">
+      <c r="Y32">
         <v>331.19376672156517</v>
       </c>
-      <c r="Z32" s="2">
+      <c r="Z32">
         <v>12.266435804502414</v>
       </c>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-    </row>
-    <row r="33" spans="23:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W33" s="3" t="s">
+    </row>
+    <row r="33" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="2">
         <v>28</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="2">
         <v>218677.05317118726</v>
       </c>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-    </row>
-    <row r="34" spans="23:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="23:31" x14ac:dyDescent="0.25">
-      <c r="W35" s="4"/>
-      <c r="X35" s="4" t="s">
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+    </row>
+    <row r="34" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W35" s="3"/>
+      <c r="X35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Y35" s="4" t="s">
+      <c r="Y35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z35" s="4" t="s">
+      <c r="Z35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AA35" s="4" t="s">
+      <c r="AA35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AB35" s="4" t="s">
+      <c r="AB35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC35" s="4" t="s">
+      <c r="AC35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD35" s="4" t="s">
+      <c r="AD35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AE35" s="4" t="s">
+      <c r="AE35" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="23:31" x14ac:dyDescent="0.25">
-      <c r="W36" s="2" t="s">
+    <row r="36" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W36" t="s">
         <v>42</v>
       </c>
-      <c r="X36" s="2">
+      <c r="X36">
         <v>1.3860967719716513</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="Y36">
         <v>0.65144746371113904</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="Z36">
         <v>2.127718425788923</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AA36">
         <v>4.2640841551992187E-2</v>
       </c>
-      <c r="AB36" s="2">
+      <c r="AB36">
         <v>4.9436986045452436E-2</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AC36">
         <v>2.7227565578978501</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD36">
         <v>4.9436986045452436E-2</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AE36">
         <v>2.7227565578978501</v>
       </c>
-    </row>
-    <row r="37" spans="23:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W37" s="3" t="s">
+      <c r="AF36">
+        <f>X36-AD36</f>
+        <v>1.3366597859261988</v>
+      </c>
+    </row>
+    <row r="37" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="X37" s="3">
+      <c r="X37" s="2">
         <v>16.564228718017898</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="Y37" s="2">
         <v>0.12415320447285193</v>
       </c>
-      <c r="Z37" s="3">
+      <c r="Z37" s="2">
         <v>133.41764949482177</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="AA37" s="2">
         <v>1.3071035004935051E-39</v>
       </c>
-      <c r="AB37" s="3">
+      <c r="AB37" s="2">
         <v>16.309487384361685</v>
       </c>
-      <c r="AC37" s="3">
+      <c r="AC37" s="2">
         <v>16.818970051674111</v>
       </c>
-      <c r="AD37" s="3">
+      <c r="AD37" s="2">
         <v>16.309487384361685</v>
       </c>
-      <c r="AE37" s="3">
+      <c r="AE37" s="2">
         <v>16.818970051674111</v>
       </c>
-    </row>
-    <row r="39" spans="23:31" x14ac:dyDescent="0.25">
+      <c r="AF37">
+        <f>X37-AD37</f>
+        <v>0.25474133365621299</v>
+      </c>
+    </row>
+    <row r="39" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="23:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="23:31" x14ac:dyDescent="0.25">
-      <c r="W41" s="5" t="s">
+    <row r="40" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="X41" s="5"/>
-    </row>
-    <row r="42" spans="23:31" x14ac:dyDescent="0.25">
-      <c r="W42" s="2" t="s">
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W42" t="s">
         <v>37</v>
       </c>
-      <c r="X42" s="2">
+      <c r="X42">
         <v>0.99954093152138479</v>
       </c>
     </row>
-    <row r="43" spans="23:31" x14ac:dyDescent="0.25">
-      <c r="W43" s="2" t="s">
+    <row r="43" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W43" t="s">
         <v>38</v>
       </c>
-      <c r="X43" s="2">
+      <c r="X43">
         <v>0.9990820737866376</v>
       </c>
     </row>
-    <row r="44" spans="23:31" x14ac:dyDescent="0.25">
-      <c r="W44" s="2" t="s">
+    <row r="44" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W44" t="s">
         <v>39</v>
       </c>
-      <c r="X44" s="2">
+      <c r="X44">
         <v>0.99904807651947602</v>
       </c>
     </row>
-    <row r="45" spans="23:31" x14ac:dyDescent="0.25">
-      <c r="W45" s="2" t="s">
+    <row r="45" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W45" t="s">
         <v>40</v>
       </c>
-      <c r="X45" s="2">
+      <c r="X45">
         <v>2.7805107143166556</v>
       </c>
     </row>
-    <row r="46" spans="23:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W46" s="3" t="s">
+    <row r="46" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X46" s="3">
+      <c r="X46" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="23:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="23:31" x14ac:dyDescent="0.25">
-      <c r="W49" s="4"/>
-      <c r="X49" s="4" t="s">
+    <row r="49" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W49" s="3"/>
+      <c r="X49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y49" s="4" t="s">
+      <c r="Y49" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z49" s="4" t="s">
+      <c r="Z49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA49" s="4" t="s">
+      <c r="AA49" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB49" s="4" t="s">
+      <c r="AB49" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="23:31" x14ac:dyDescent="0.25">
-      <c r="W50" s="2" t="s">
+    <row r="50" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W50" t="s">
         <v>41</v>
       </c>
-      <c r="X50" s="2">
+      <c r="X50">
         <v>1</v>
       </c>
-      <c r="Y50" s="2">
+      <c r="Y50">
         <v>227198.94184486335</v>
       </c>
-      <c r="Z50" s="2">
+      <c r="Z50">
         <v>227198.94184486335</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AA50">
         <v>29387.128942999156</v>
       </c>
-      <c r="AB50" s="2">
+      <c r="AB50">
         <v>1.5147063145437473E-42</v>
       </c>
     </row>
-    <row r="51" spans="23:31" x14ac:dyDescent="0.25">
-      <c r="W51" s="2" t="s">
+    <row r="51" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W51" t="s">
         <v>33</v>
       </c>
-      <c r="X51" s="2">
+      <c r="X51">
         <v>27</v>
       </c>
-      <c r="Y51" s="2">
+      <c r="Y51">
         <v>208.74347547560242</v>
       </c>
-      <c r="Z51" s="2">
+      <c r="Z51">
         <v>7.7312398324297193</v>
       </c>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-    </row>
-    <row r="52" spans="23:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W52" s="3" t="s">
+    </row>
+    <row r="52" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W52" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="2">
         <v>28</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="2">
         <v>227407.68532033896</v>
       </c>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-    </row>
-    <row r="53" spans="23:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="23:31" x14ac:dyDescent="0.25">
-      <c r="W54" s="4"/>
-      <c r="X54" s="4" t="s">
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+    </row>
+    <row r="53" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W54" s="3"/>
+      <c r="X54" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Y54" s="4" t="s">
+      <c r="Y54" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z54" s="4" t="s">
+      <c r="Z54" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AA54" s="4" t="s">
+      <c r="AA54" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AB54" s="4" t="s">
+      <c r="AB54" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC54" s="4" t="s">
+      <c r="AC54" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD54" s="4" t="s">
+      <c r="AD54" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AE54" s="4" t="s">
+      <c r="AE54" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="23:31" x14ac:dyDescent="0.25">
-      <c r="W55" s="2" t="s">
+    <row r="55" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W55" t="s">
         <v>42</v>
       </c>
-      <c r="X55" s="2">
+      <c r="X55">
         <v>0.71389597260666537</v>
       </c>
-      <c r="Y55" s="2">
+      <c r="Y55">
         <v>0.51718363627808683</v>
       </c>
-      <c r="Z55" s="2">
+      <c r="Z55">
         <v>1.3803529781882105</v>
       </c>
-      <c r="AA55" s="2">
+      <c r="AA55">
         <v>0.17880026059818746</v>
       </c>
-      <c r="AB55" s="2">
+      <c r="AB55">
         <v>-0.34727719493295384</v>
       </c>
-      <c r="AC55" s="2">
+      <c r="AC55">
         <v>1.7750691401462846</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AD55">
         <v>-0.34727719493295384</v>
       </c>
-      <c r="AE55" s="2">
+      <c r="AE55">
         <v>1.7750691401462846</v>
       </c>
-    </row>
-    <row r="56" spans="23:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W56" s="3" t="s">
+      <c r="AF55">
+        <f>X55-AE55</f>
+        <v>-1.0611731675396192</v>
+      </c>
+    </row>
+    <row r="56" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X56" s="3">
+      <c r="X56" s="2">
         <v>16.896699891000743</v>
       </c>
-      <c r="Y56" s="3">
+      <c r="Y56" s="2">
         <v>9.856513275691868E-2</v>
       </c>
-      <c r="Z56" s="3">
+      <c r="Z56" s="2">
         <v>171.42674512163833</v>
       </c>
-      <c r="AA56" s="3">
+      <c r="AA56" s="2">
         <v>1.5147063145437473E-42</v>
       </c>
-      <c r="AB56" s="3">
+      <c r="AB56" s="2">
         <v>16.694460943749167</v>
       </c>
-      <c r="AC56" s="3">
+      <c r="AC56" s="2">
         <v>17.09893883825232</v>
       </c>
-      <c r="AD56" s="3">
+      <c r="AD56" s="2">
         <v>16.694460943749167</v>
       </c>
-      <c r="AE56" s="3">
+      <c r="AE56" s="2">
         <v>17.09893883825232</v>
+      </c>
+      <c r="AF56">
+        <f>X56-AE56</f>
+        <v>-0.20223894725157621</v>
       </c>
     </row>
   </sheetData>
